--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G395"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10317,12 +10317,87 @@
         <v>3.672655</v>
       </c>
       <c r="E395" t="n">
-        <v>3.672335</v>
+        <v>3.67197</v>
       </c>
       <c r="F395" t="n">
-        <v>3.672335</v>
+        <v>3.67198</v>
       </c>
       <c r="G395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45047.625</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>3.67198</v>
+      </c>
+      <c r="D396" t="n">
+        <v>3.67301</v>
+      </c>
+      <c r="E396" t="n">
+        <v>3.671925</v>
+      </c>
+      <c r="F396" t="n">
+        <v>3.67301</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45078.625</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>3.673015</v>
+      </c>
+      <c r="D397" t="n">
+        <v>3.67312</v>
+      </c>
+      <c r="E397" t="n">
+        <v>3.672855</v>
+      </c>
+      <c r="F397" t="n">
+        <v>3.673025</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45110.625</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>3.673025</v>
+      </c>
+      <c r="D398" t="n">
+        <v>3.67305</v>
+      </c>
+      <c r="E398" t="n">
+        <v>3.672965</v>
+      </c>
+      <c r="F398" t="n">
+        <v>3.67304</v>
+      </c>
+      <c r="G398" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -10389,13 +10389,13 @@
         <v>3.673025</v>
       </c>
       <c r="D398" t="n">
-        <v>3.67305</v>
+        <v>3.673075</v>
       </c>
       <c r="E398" t="n">
         <v>3.672965</v>
       </c>
       <c r="F398" t="n">
-        <v>3.67304</v>
+        <v>3.673045</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>33329.625</v>
+        <v>33329.66666666666</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>33665.66666666666</v>
+        <v>33665.70833333334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>33695.625</v>
+        <v>33695.66666666666</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>34060.625</v>
+        <v>34060.66666666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>34425.625</v>
+        <v>34425.66666666666</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>34610.66666666666</v>
+        <v>34610.70833333334</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>34974.66666666666</v>
+        <v>34974.70833333334</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>35156.625</v>
+        <v>35156.66666666666</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>35521.625</v>
+        <v>35521.66666666666</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>35886.625</v>
+        <v>35886.66666666666</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>36251.625</v>
+        <v>36251.66666666666</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>36770.66666666666</v>
+        <v>36770.625</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>37347.625</v>
+        <v>37347.66666666666</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>37712.625</v>
+        <v>37712.66666666666</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>38078.625</v>
+        <v>38078.66666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38443.625</v>
+        <v>38443.66666666666</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38628.625</v>
+        <v>38628.66666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>38992.625</v>
+        <v>38992.66666666666</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -10389,15 +10389,40 @@
         <v>3.673025</v>
       </c>
       <c r="D398" t="n">
-        <v>3.673075</v>
+        <v>3.673085</v>
       </c>
       <c r="E398" t="n">
         <v>3.672965</v>
       </c>
       <c r="F398" t="n">
-        <v>3.673045</v>
+        <v>3.673065</v>
       </c>
       <c r="G398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45139.625</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>3.673065</v>
+      </c>
+      <c r="D399" t="n">
+        <v>3.673085</v>
+      </c>
+      <c r="E399" t="n">
+        <v>3.672995</v>
+      </c>
+      <c r="F399" t="n">
+        <v>3.673035</v>
+      </c>
+      <c r="G399" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>33329.66666666666</v>
+        <v>33329.625</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>33665.70833333334</v>
+        <v>33665.66666666666</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>33695.66666666666</v>
+        <v>33695.625</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>34060.66666666666</v>
+        <v>34060.625</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>34425.66666666666</v>
+        <v>34425.625</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>34610.70833333334</v>
+        <v>34610.66666666666</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>34974.70833333334</v>
+        <v>34974.66666666666</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>35156.66666666666</v>
+        <v>35156.625</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>35521.66666666666</v>
+        <v>35521.625</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>35886.66666666666</v>
+        <v>35886.625</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>36251.66666666666</v>
+        <v>36251.625</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>36770.625</v>
+        <v>36770.66666666666</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>37347.66666666666</v>
+        <v>37347.625</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>37712.66666666666</v>
+        <v>37712.625</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>38078.66666666666</v>
+        <v>38078.625</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38443.66666666666</v>
+        <v>38443.625</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38628.66666666666</v>
+        <v>38628.625</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>38992.66666666666</v>
+        <v>38992.625</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -10414,13 +10414,13 @@
         <v>3.673065</v>
       </c>
       <c r="D399" t="n">
-        <v>3.673085</v>
+        <v>3.67309</v>
       </c>
       <c r="E399" t="n">
-        <v>3.672995</v>
+        <v>3.67299</v>
       </c>
       <c r="F399" t="n">
-        <v>3.673035</v>
+        <v>3.673015</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10420,9 +10420,84 @@
         <v>3.67299</v>
       </c>
       <c r="F399" t="n">
-        <v>3.673015</v>
+        <v>3.67305</v>
       </c>
       <c r="G399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45170.625</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>3.67305</v>
+      </c>
+      <c r="D400" t="n">
+        <v>3.67309</v>
+      </c>
+      <c r="E400" t="n">
+        <v>3.672865</v>
+      </c>
+      <c r="F400" t="n">
+        <v>3.67304</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45201.66666666666</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>3.67304</v>
+      </c>
+      <c r="D401" t="n">
+        <v>3.67311</v>
+      </c>
+      <c r="E401" t="n">
+        <v>3.67295</v>
+      </c>
+      <c r="F401" t="n">
+        <v>3.67296</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45231.70833333334</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>SAXO:USDAED</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>3.67296</v>
+      </c>
+      <c r="D402" t="n">
+        <v>3.67304</v>
+      </c>
+      <c r="E402" t="n">
+        <v>3.67287</v>
+      </c>
+      <c r="F402" t="n">
+        <v>3.67295</v>
+      </c>
+      <c r="G402" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -10495,7 +10495,7 @@
         <v>3.67287</v>
       </c>
       <c r="F402" t="n">
-        <v>3.67295</v>
+        <v>3.67293</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/United Arab Emirates_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9644,12 +9644,35 @@
         <v>3.67304</v>
       </c>
       <c r="E402">
-        <v>3.67261</v>
+        <v>3.672155</v>
       </c>
       <c r="F402">
-        <v>3.67269</v>
+        <v>3.6722</v>
       </c>
       <c r="G402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="2">
+        <v>45261.70833333334</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403">
+        <v>3.67225</v>
+      </c>
+      <c r="D403">
+        <v>3.6724</v>
+      </c>
+      <c r="E403">
+        <v>3.672095</v>
+      </c>
+      <c r="F403">
+        <v>3.67226</v>
+      </c>
+      <c r="G403">
         <v>0</v>
       </c>
     </row>
